--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D19C50E-3587-4F49-8296-B38BA9698A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1F4C9-4248-41B3-B539-691A38DE3519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2760" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1F4C9-4248-41B3-B539-691A38DE3519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14EBCE4-6144-45B8-AE82-D97BF717510E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14EBCE4-6144-45B8-AE82-D97BF717510E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079142A-3BD9-44B9-A285-8869A5F211C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079142A-3BD9-44B9-A285-8869A5F211C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B478B6FC-DAA0-4BE1-A5CC-B67BC5B9D5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="5910" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>
     <sheet name="Full To" sheetId="7" r:id="rId2"/>
-    <sheet name="Full From Windows" sheetId="9" r:id="rId3"/>
-    <sheet name="Full To Windows" sheetId="11" r:id="rId4"/>
-    <sheet name="Partial From" sheetId="8" r:id="rId5"/>
-    <sheet name="Partial To" sheetId="1" r:id="rId6"/>
-    <sheet name="Partial From Windows" sheetId="10" r:id="rId7"/>
-    <sheet name="Partial To Windows" sheetId="12" r:id="rId8"/>
+    <sheet name="Partial From" sheetId="8" r:id="rId3"/>
+    <sheet name="Partial To" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -406,30 +402,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FCD045-DA97-470D-83E4-37E48DCCAC7C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291CF0B7-7F8B-4AED-A79D-42ACBC855247}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDF5D4A-DC17-46A6-B811-E8DAD1E64E52}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -441,7 +413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8ADCDB-D3A8-49BA-AA3A-97D28D836923}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -451,28 +423,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF939E31-2146-4AF4-A9EE-81CBBA3F7EDF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB753E63-2FEC-4E54-BCED-EE70865BEDBE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B478B6FC-DAA0-4BE1-A5CC-B67BC5B9D5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096F61F-7705-4DCE-A927-1CB53F04B8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096F61F-7705-4DCE-A927-1CB53F04B8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FDB682-EA19-4702-A85B-F335BD31ED4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FDB682-EA19-4702-A85B-F335BD31ED4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC59FC-4E63-460D-A710-F8431593C967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC59FC-4E63-460D-A710-F8431593C967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2322E-5F0A-488D-835F-00237B955BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2322E-5F0A-488D-835F-00237B955BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4559870E-3C05-4786-AC4C-BDF75979142E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4559870E-3C05-4786-AC4C-BDF75979142E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030C149-7FE0-44DC-9355-E7BCC09AB0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030C149-7FE0-44DC-9355-E7BCC09AB0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20329CF6-7061-4F5A-8E02-41838123C30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20329CF6-7061-4F5A-8E02-41838123C30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E459637-78D5-43BB-B5C9-3996FF473D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full From" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossQuantilogram.xlsx
+++ b/Templates/TemplateCrossQuantilogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E459637-78D5-43BB-B5C9-3996FF473D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B479CB8-FD9B-4BAD-8ED4-E50ED5034643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
